--- a/Gemeenten/Gemeenten alfabetisch 2020.xlsx
+++ b/Gemeenten/Gemeenten alfabetisch 2020.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="1523">
   <si>
     <t xml:space="preserve">Gemeentecode</t>
   </si>
@@ -1036,25 +1036,7 @@
     <t xml:space="preserve">Cranendonck</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">51.285</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">51.285 </t>
   </si>
   <si>
     <t xml:space="preserve">5.588056 </t>
@@ -4090,94 +4072,100 @@
     <t xml:space="preserve">Vlieland</t>
   </si>
   <si>
+    <t xml:space="preserve">53.257001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.964193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM0718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vlissingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.583333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM0986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voerendaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM0626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voorschoten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM0285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voorst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.083333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM0865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM1949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waadhoeke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.533333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM0866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waalre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.386944 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.446111 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM0867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waalwijk</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM0718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vlissingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.583333 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM0986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voerendaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM0626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voorschoten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM0285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voorst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.083333 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM0865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waadhoeke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.533333 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM0866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waalre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.386944 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.446111 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM0867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waalwijk</t>
   </si>
   <si>
     <t xml:space="preserve">0627</t>
@@ -4614,7 +4602,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4636,12 +4624,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4686,7 +4668,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4695,19 +4677,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4734,8 +4704,8 @@
   </sheetPr>
   <dimension ref="A1:H356"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A328" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E357" activeCellId="0" sqref="E357"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E309" activeCellId="0" sqref="E309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6371,7 +6341,7 @@
       <c r="C63" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -6553,10 +6523,10 @@
       <c r="C70" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="2" t="s">
         <v>372</v>
       </c>
       <c r="F70" s="0" t="s">
@@ -6998,7 +6968,7 @@
       <c r="D87" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="2" t="s">
         <v>451</v>
       </c>
       <c r="F87" s="0" t="s">
@@ -9468,7 +9438,7 @@
       <c r="D182" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E182" s="4" t="n">
+      <c r="E182" s="2" t="n">
         <v>7</v>
       </c>
       <c r="F182" s="0" t="s">
@@ -9806,7 +9776,7 @@
       <c r="D195" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="E195" s="4" t="s">
+      <c r="E195" s="2" t="s">
         <v>372</v>
       </c>
       <c r="F195" s="0" t="s">
@@ -9829,7 +9799,7 @@
       <c r="C196" s="0" t="s">
         <v>908</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="D196" s="2" t="s">
         <v>909</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -10349,7 +10319,7 @@
       <c r="C216" s="0" t="s">
         <v>987</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D216" s="2" t="s">
         <v>988</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -10583,7 +10553,7 @@
       <c r="C225" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="D225" s="4" t="n">
+      <c r="D225" s="2" t="n">
         <v>53</v>
       </c>
       <c r="E225" s="1" t="s">
@@ -10872,7 +10842,7 @@
       <c r="D236" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="E236" s="6" t="n">
+      <c r="E236" s="3" t="n">
         <v>7</v>
       </c>
       <c r="F236" s="0" t="s">
@@ -11103,7 +11073,7 @@
       <c r="C245" s="0" t="s">
         <v>1096</v>
       </c>
-      <c r="D245" s="6" t="n">
+      <c r="D245" s="3" t="n">
         <v>52</v>
       </c>
       <c r="E245" s="1" t="s">
@@ -11236,7 +11206,7 @@
       <c r="D250" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="E250" s="6" t="n">
+      <c r="E250" s="3" t="n">
         <v>6</v>
       </c>
       <c r="F250" s="0" t="s">
@@ -11363,7 +11333,7 @@
       <c r="C255" s="0" t="s">
         <v>1133</v>
       </c>
-      <c r="D255" s="6" t="n">
+      <c r="D255" s="3" t="n">
         <v>52</v>
       </c>
       <c r="E255" s="1" t="s">
@@ -11860,7 +11830,7 @@
       <c r="D274" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="E274" s="4" t="s">
+      <c r="E274" s="2" t="s">
         <v>1212</v>
       </c>
       <c r="F274" s="0" t="s">
@@ -11938,7 +11908,7 @@
       <c r="D277" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="E277" s="4" t="s">
+      <c r="E277" s="2" t="s">
         <v>1224</v>
       </c>
       <c r="F277" s="0" t="s">
@@ -12354,7 +12324,7 @@
       <c r="D293" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="E293" s="6" t="s">
+      <c r="E293" s="3" t="s">
         <v>1289</v>
       </c>
       <c r="F293" s="0" t="s">
@@ -12768,10 +12738,10 @@
         <v>1348</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1151</v>
+        <v>1349</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F309" s="0" t="s">
         <v>37</v>
@@ -12785,19 +12755,19 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="F310" s="0" t="s">
         <v>272</v>
@@ -12811,13 +12781,13 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>1160</v>
@@ -12837,13 +12807,13 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>209</v>
@@ -12863,19 +12833,19 @@
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F313" s="0" t="s">
         <v>29</v>
@@ -12889,13 +12859,13 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>1017</v>
@@ -12915,19 +12885,19 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="F315" s="0" t="s">
         <v>37</v>
@@ -12941,19 +12911,19 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="F316" s="0" t="s">
         <v>82</v>
@@ -12967,19 +12937,19 @@
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>498</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1349</v>
+        <v>1380</v>
       </c>
       <c r="F317" s="0" t="s">
         <v>82</v>
@@ -12993,13 +12963,13 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>721</v>
@@ -13019,13 +12989,13 @@
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>396</v>
@@ -13045,19 +13015,19 @@
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="F320" s="0" t="s">
         <v>45</v>
@@ -13071,19 +13041,19 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="F321" s="0" t="s">
         <v>21</v>
@@ -13097,13 +13067,13 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>823</v>
@@ -13123,13 +13093,13 @@
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>419</v>
@@ -13149,13 +13119,13 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>292</v>
@@ -13175,13 +13145,13 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>292</v>
@@ -13201,19 +13171,19 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="F326" s="0" t="s">
         <v>122</v>
@@ -13227,19 +13197,19 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="F327" s="0" t="s">
         <v>13</v>
@@ -13253,13 +13223,13 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>347</v>
@@ -13279,19 +13249,19 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="F329" s="0" t="s">
         <v>122</v>
@@ -13305,19 +13275,19 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="F330" s="0" t="s">
         <v>45</v>
@@ -13331,19 +13301,19 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="F331" s="0" t="s">
         <v>37</v>
@@ -13357,19 +13327,19 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="F332" s="0" t="s">
         <v>45</v>
@@ -13383,13 +13353,13 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>593</v>
@@ -13409,13 +13379,13 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>405</v>
@@ -13435,19 +13405,19 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>1349</v>
+        <v>1380</v>
       </c>
       <c r="F335" s="0" t="s">
         <v>21</v>
@@ -13461,13 +13431,13 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>128</v>
@@ -13487,19 +13457,19 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>396</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="F337" s="0" t="s">
         <v>29</v>
@@ -13513,13 +13483,13 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>270</v>
@@ -13539,13 +13509,13 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>553</v>
@@ -13565,13 +13535,13 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>626</v>
@@ -13591,19 +13561,19 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="F341" s="0" t="s">
         <v>21</v>
@@ -13617,13 +13587,13 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>311</v>
@@ -13643,13 +13613,13 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>1001</v>
@@ -13669,19 +13639,19 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="F344" s="0" t="s">
         <v>29</v>
@@ -13695,19 +13665,19 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="F345" s="0" t="s">
         <v>21</v>
@@ -13721,19 +13691,19 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>480</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="F346" s="0" t="s">
         <v>69</v>
@@ -13747,13 +13717,13 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>553</v>
@@ -13773,19 +13743,19 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>765</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F348" s="0" t="s">
         <v>29</v>
@@ -13799,13 +13769,13 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>297</v>
@@ -13825,19 +13795,19 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="F350" s="0" t="s">
         <v>45</v>
@@ -13851,13 +13821,13 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>391</v>
@@ -13877,19 +13847,19 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="F352" s="0" t="s">
         <v>82</v>
@@ -13903,13 +13873,13 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>75</v>
@@ -13929,19 +13899,19 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F354" s="0" t="s">
         <v>62</v>
@@ -13955,13 +13925,13 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>1177</v>
@@ -13981,19 +13951,19 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>419</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F356" s="0" t="s">
         <v>62</v>
